--- a/sample_apps/simple_en/simple-nlu-knowledge-en.xlsx
+++ b/sample_apps/simple_en/simple-nlu-knowledge-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakano\system\dialbb\dialbb-next\sample_apps\simple_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034FAADB-68EA-4745-8509-AA2998F70059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98C580-0AE8-41B2-AF4C-C73C13A1E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="2310" windowWidth="21540" windowHeight="11265" activeTab="1" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C3566FB2-A815-41D8-9347-99D11DD601B4}"/>
   </bookViews>
   <sheets>
     <sheet name="utterances" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>type</t>
     <phoneticPr fontId="1"/>
@@ -80,129 +80,124 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Grilled Cheese sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ham Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grilled Chicken Sandwich</t>
+  </si>
+  <si>
+    <t>Meatball Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Salmon Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuna Sandwiches</t>
+  </si>
+  <si>
+    <t>Vegetable Sandwich</t>
+  </si>
+  <si>
+    <t>Chicken salad Sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yeah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes, I do.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chiken salad sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite-sandwich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chicken salad Sandwiches, chicken sald</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grilled Cheese sandwiches, grilled cheese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ham Sandwiches, ham</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grilled Chicken Sandwiches, grilled chicken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meatball Sandwiches, meatball</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Salmon Sandwiches, salmon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuna Sandwiches, tuna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vegetable Sandwiches, vegetable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite-sandwich=roast beef sandwiches</t>
+  </si>
+  <si>
+    <t>favorite-sandwich=chicken salad sandwiches</t>
+  </si>
+  <si>
+    <t>I like roast beef sandwiches</t>
+  </si>
+  <si>
+    <t>chicken salad sandwiches are my favorite</t>
+  </si>
+  <si>
+    <t>favorite-sandwich</t>
+  </si>
+  <si>
     <t>roast beef sandwich</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>roast beef sandwich, roast beef, roast beef sandwiches</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>egg salad sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Grilled Cheese sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ham Sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Grilled Chicken Sandwich</t>
-  </si>
-  <si>
-    <t>Meatball Sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Salmon Sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tuna Sandwiches</t>
-  </si>
-  <si>
-    <t>Vegetable Sandwich</t>
-  </si>
-  <si>
-    <t>Chicken salad Sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yeah</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nope</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yes, I do.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chiken salad sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>favorite-sandwich</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slot name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slots</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>favorite-sandwich=roast beef sandwitches</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>favorite-sandwich=chicken salad sandwitches</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chicken salad sandwiches are my favorite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I like roast beef sandwiches</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>egg salad sandwiches, Egg Salad</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chicken salad Sandwiches, chicken sald</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Grilled Cheese sandwiches, grilled cheese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ham Sandwiches, ham</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Grilled Chicken Sandwiches, grilled chicken</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Meatball Sandwiches, meatball</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Salmon Sandwiches, salmon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tuna Sandwiches, tuna</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vegetable Sandwiches, vegetable</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -604,14 +599,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -625,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -658,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -672,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -686,10 +681,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -700,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -711,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -722,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -737,13 +732,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -763,142 +758,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
